--- a/Capacity-FOA for Python.xlsx
+++ b/Capacity-FOA for Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPOSOWYI\Desktop\Files\Files\Work\Capacity Model_2025\New improved model\Streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPOSOWYI\Desktop\Files\Files\Work\Capacity Model_2025\Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E7C12A-A027-4FF4-A00B-C1F97B96C995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B703DC-B54E-4C0C-A5D9-0EE0F9413D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="126">
   <si>
     <t>PF10</t>
   </si>
@@ -236,15 +236,6 @@
     <t>Total Outsource Exam to be QC</t>
   </si>
   <si>
-    <t>delay hire 10 to jul 27</t>
-  </si>
-  <si>
-    <t>hire 60</t>
-  </si>
-  <si>
-    <t>hire 40</t>
-  </si>
-  <si>
     <t>fy23</t>
   </si>
   <si>
@@ -408,6 +399,90 @@
   </si>
   <si>
     <t>Stretch %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hire </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Hiring </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>20 new examiners in July 2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Hiring </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 new examiners in Jan 2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Hiring </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>20 new examiners in Jan 2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Slow</t>
   </si>
 </sst>
 </file>
@@ -418,7 +493,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,12 +705,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0F9ED5"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -694,7 +763,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,12 +963,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD1D1D1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -912,18 +975,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1249,6 +1312,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1295,7 +1371,7 @@
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,58 +1443,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1428,9 +1474,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1443,74 +1486,62 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1526,118 +1557,250 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="39" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="25" xr:uid="{C54F1A95-644A-4C21-A927-F334D363B212}"/>
@@ -2128,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF736FCD-44EB-4D2D-A6CA-359EE89B9365}">
   <dimension ref="A2:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2138,589 +2301,589 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="73" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="74"/>
-      <c r="K3" s="81"/>
+      <c r="A3" s="62"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:17" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="L4" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="M4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="N4" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="O4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="P4" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="Q4" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="76" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="66">
+        <v>2098</v>
+      </c>
+      <c r="C5" s="66">
+        <v>2541</v>
+      </c>
+      <c r="D5" s="66">
+        <v>2757</v>
+      </c>
+      <c r="E5" s="66">
+        <v>3143</v>
+      </c>
+      <c r="F5" s="66">
+        <v>3448</v>
+      </c>
+      <c r="G5" s="66">
+        <v>3601</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="66">
+        <v>2098</v>
+      </c>
+      <c r="M5" s="66">
+        <v>2544</v>
+      </c>
+      <c r="N5" s="66">
+        <v>2676</v>
+      </c>
+      <c r="O5" s="66">
+        <v>2827</v>
+      </c>
+      <c r="P5" s="66">
+        <v>3070</v>
+      </c>
+      <c r="Q5" s="66">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="66">
+        <v>1975</v>
+      </c>
+      <c r="C6" s="66">
+        <v>2241</v>
+      </c>
+      <c r="D6" s="66">
+        <v>2586</v>
+      </c>
+      <c r="E6" s="66">
+        <v>2984</v>
+      </c>
+      <c r="F6" s="66">
+        <v>3462</v>
+      </c>
+      <c r="G6" s="66">
+        <v>3693</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="66">
+        <v>1975</v>
+      </c>
+      <c r="M6" s="66">
+        <v>2207</v>
+      </c>
+      <c r="N6" s="66">
+        <v>2286</v>
+      </c>
+      <c r="O6" s="66">
+        <v>2549</v>
+      </c>
+      <c r="P6" s="66">
+        <v>2638</v>
+      </c>
+      <c r="Q6" s="66">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="66">
+        <v>1577</v>
+      </c>
+      <c r="C7" s="66">
+        <v>1841</v>
+      </c>
+      <c r="D7" s="66">
+        <v>2191</v>
+      </c>
+      <c r="E7" s="66">
+        <v>2618</v>
+      </c>
+      <c r="F7" s="66">
+        <v>3125</v>
+      </c>
+      <c r="G7" s="66">
+        <v>3419</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="66">
+        <v>1577</v>
+      </c>
+      <c r="M7" s="66">
+        <v>1808</v>
+      </c>
+      <c r="N7" s="66">
+        <v>1891</v>
+      </c>
+      <c r="O7" s="66">
+        <v>2090</v>
+      </c>
+      <c r="P7" s="66">
+        <v>2302</v>
+      </c>
+      <c r="Q7" s="66">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="66">
+        <v>2054</v>
+      </c>
+      <c r="C8" s="66">
+        <v>2307</v>
+      </c>
+      <c r="D8" s="66">
+        <v>2413</v>
+      </c>
+      <c r="E8" s="66">
+        <v>2523</v>
+      </c>
+      <c r="F8" s="66">
+        <v>2502</v>
+      </c>
+      <c r="G8" s="66">
+        <v>2674</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="66">
+        <v>2054</v>
+      </c>
+      <c r="M8" s="66">
+        <v>2335</v>
+      </c>
+      <c r="N8" s="66">
+        <v>2457</v>
+      </c>
+      <c r="O8" s="66">
+        <v>2541</v>
+      </c>
+      <c r="P8" s="66">
+        <v>2476</v>
+      </c>
+      <c r="Q8" s="66">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="67">
+        <v>7703</v>
+      </c>
+      <c r="C9" s="67">
+        <v>8930</v>
+      </c>
+      <c r="D9" s="67">
+        <v>9947</v>
+      </c>
+      <c r="E9" s="67">
+        <v>11268</v>
+      </c>
+      <c r="F9" s="67">
+        <v>12537</v>
+      </c>
+      <c r="G9" s="67">
+        <v>13387</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="67">
+        <v>7703</v>
+      </c>
+      <c r="M9" s="67">
+        <v>8893</v>
+      </c>
+      <c r="N9" s="67">
+        <v>9311</v>
+      </c>
+      <c r="O9" s="67">
+        <v>10007</v>
+      </c>
+      <c r="P9" s="67">
+        <v>10486</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>10608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="98"/>
+    </row>
+    <row r="11" spans="1:17" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="C11" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="D11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="E11" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="F11" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="G11" s="68" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="77" t="s">
+      <c r="K11" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="78">
-        <v>2098</v>
-      </c>
-      <c r="C5" s="78">
-        <v>2541</v>
-      </c>
-      <c r="D5" s="78">
-        <v>2757</v>
-      </c>
-      <c r="E5" s="78">
-        <v>3143</v>
-      </c>
-      <c r="F5" s="78">
-        <v>3448</v>
-      </c>
-      <c r="G5" s="78">
-        <v>3601</v>
-      </c>
-      <c r="K5" s="77" t="s">
+      <c r="B12" s="66">
+        <v>1907</v>
+      </c>
+      <c r="C12" s="66">
+        <v>2310</v>
+      </c>
+      <c r="D12" s="66">
+        <v>2506</v>
+      </c>
+      <c r="E12" s="66">
+        <v>2857</v>
+      </c>
+      <c r="F12" s="66">
+        <v>3135</v>
+      </c>
+      <c r="G12" s="66">
+        <v>3274</v>
+      </c>
+      <c r="K12" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="78">
-        <v>2098</v>
-      </c>
-      <c r="M5" s="78">
-        <v>2544</v>
-      </c>
-      <c r="N5" s="78">
-        <v>2676</v>
-      </c>
-      <c r="O5" s="78">
-        <v>2827</v>
-      </c>
-      <c r="P5" s="78">
-        <v>3070</v>
-      </c>
-      <c r="Q5" s="78">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="77" t="s">
+      <c r="L12" s="66">
+        <v>1907</v>
+      </c>
+      <c r="M12" s="66">
+        <v>2312</v>
+      </c>
+      <c r="N12" s="66">
+        <v>2433</v>
+      </c>
+      <c r="O12" s="66">
+        <v>2570</v>
+      </c>
+      <c r="P12" s="66">
+        <v>2791</v>
+      </c>
+      <c r="Q12" s="66">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="78">
-        <v>1975</v>
-      </c>
-      <c r="C6" s="78">
-        <v>2241</v>
-      </c>
-      <c r="D6" s="78">
-        <v>2586</v>
-      </c>
-      <c r="E6" s="78">
-        <v>2984</v>
-      </c>
-      <c r="F6" s="78">
-        <v>3462</v>
-      </c>
-      <c r="G6" s="78">
-        <v>3693</v>
-      </c>
-      <c r="K6" s="77" t="s">
+      <c r="B13" s="66">
+        <v>1795</v>
+      </c>
+      <c r="C13" s="66">
+        <v>2037</v>
+      </c>
+      <c r="D13" s="66">
+        <v>2351</v>
+      </c>
+      <c r="E13" s="66">
+        <v>2713</v>
+      </c>
+      <c r="F13" s="66">
+        <v>3147</v>
+      </c>
+      <c r="G13" s="66">
+        <v>3357</v>
+      </c>
+      <c r="K13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="78">
-        <v>1975</v>
-      </c>
-      <c r="M6" s="78">
-        <v>2207</v>
-      </c>
-      <c r="N6" s="78">
-        <v>2286</v>
-      </c>
-      <c r="O6" s="78">
-        <v>2549</v>
-      </c>
-      <c r="P6" s="78">
-        <v>2638</v>
-      </c>
-      <c r="Q6" s="78">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="77" t="s">
+      <c r="L13" s="66">
+        <v>1795</v>
+      </c>
+      <c r="M13" s="66">
+        <v>2007</v>
+      </c>
+      <c r="N13" s="66">
+        <v>2079</v>
+      </c>
+      <c r="O13" s="66">
+        <v>2317</v>
+      </c>
+      <c r="P13" s="66">
+        <v>2398</v>
+      </c>
+      <c r="Q13" s="66">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="78">
-        <v>1577</v>
-      </c>
-      <c r="C7" s="78">
-        <v>1841</v>
-      </c>
-      <c r="D7" s="78">
-        <v>2191</v>
-      </c>
-      <c r="E7" s="78">
-        <v>2618</v>
-      </c>
-      <c r="F7" s="78">
-        <v>3125</v>
-      </c>
-      <c r="G7" s="78">
-        <v>3419</v>
-      </c>
-      <c r="K7" s="77" t="s">
+      <c r="B14" s="66">
+        <v>1433</v>
+      </c>
+      <c r="C14" s="66">
+        <v>1674</v>
+      </c>
+      <c r="D14" s="66">
+        <v>1991</v>
+      </c>
+      <c r="E14" s="66">
+        <v>2380</v>
+      </c>
+      <c r="F14" s="66">
+        <v>2841</v>
+      </c>
+      <c r="G14" s="66">
+        <v>3108</v>
+      </c>
+      <c r="K14" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="78">
-        <v>1577</v>
-      </c>
-      <c r="M7" s="78">
-        <v>1808</v>
-      </c>
-      <c r="N7" s="78">
-        <v>1891</v>
-      </c>
-      <c r="O7" s="78">
-        <v>2090</v>
-      </c>
-      <c r="P7" s="78">
-        <v>2302</v>
-      </c>
-      <c r="Q7" s="78">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="77" t="s">
+      <c r="L14" s="66">
+        <v>1433</v>
+      </c>
+      <c r="M14" s="66">
+        <v>1644</v>
+      </c>
+      <c r="N14" s="66">
+        <v>1719</v>
+      </c>
+      <c r="O14" s="66">
+        <v>1900</v>
+      </c>
+      <c r="P14" s="66">
+        <v>2092</v>
+      </c>
+      <c r="Q14" s="66">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="78">
-        <v>2054</v>
-      </c>
-      <c r="C8" s="78">
-        <v>2307</v>
-      </c>
-      <c r="D8" s="78">
-        <v>2413</v>
-      </c>
-      <c r="E8" s="78">
-        <v>2523</v>
-      </c>
-      <c r="F8" s="78">
-        <v>2502</v>
-      </c>
-      <c r="G8" s="78">
-        <v>2674</v>
-      </c>
-      <c r="K8" s="77" t="s">
+      <c r="B15" s="66">
+        <v>1867</v>
+      </c>
+      <c r="C15" s="66">
+        <v>2097</v>
+      </c>
+      <c r="D15" s="66">
+        <v>2194</v>
+      </c>
+      <c r="E15" s="66">
+        <v>2294</v>
+      </c>
+      <c r="F15" s="66">
+        <v>2274</v>
+      </c>
+      <c r="G15" s="66">
+        <v>2431</v>
+      </c>
+      <c r="K15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="78">
-        <v>2054</v>
-      </c>
-      <c r="M8" s="78">
-        <v>2335</v>
-      </c>
-      <c r="N8" s="78">
-        <v>2457</v>
-      </c>
-      <c r="O8" s="78">
-        <v>2541</v>
-      </c>
-      <c r="P8" s="78">
-        <v>2476</v>
-      </c>
-      <c r="Q8" s="78">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="77" t="s">
+      <c r="L15" s="66">
+        <v>1867</v>
+      </c>
+      <c r="M15" s="66">
+        <v>2122</v>
+      </c>
+      <c r="N15" s="66">
+        <v>2233</v>
+      </c>
+      <c r="O15" s="66">
+        <v>2310</v>
+      </c>
+      <c r="P15" s="66">
+        <v>2251</v>
+      </c>
+      <c r="Q15" s="66">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="79">
-        <v>7703</v>
-      </c>
-      <c r="C9" s="79">
-        <v>8930</v>
-      </c>
-      <c r="D9" s="79">
-        <v>9947</v>
-      </c>
-      <c r="E9" s="79">
-        <v>11268</v>
-      </c>
-      <c r="F9" s="79">
-        <v>12537</v>
-      </c>
-      <c r="G9" s="79">
-        <v>13387</v>
-      </c>
-      <c r="K9" s="77" t="s">
+      <c r="B16" s="67">
+        <v>7003</v>
+      </c>
+      <c r="C16" s="67">
+        <v>8118</v>
+      </c>
+      <c r="D16" s="67">
+        <v>9043</v>
+      </c>
+      <c r="E16" s="67">
+        <v>10244</v>
+      </c>
+      <c r="F16" s="67">
+        <v>11397</v>
+      </c>
+      <c r="G16" s="67">
+        <v>12170</v>
+      </c>
+      <c r="K16" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="79">
-        <v>7703</v>
-      </c>
-      <c r="M9" s="79">
-        <v>8893</v>
-      </c>
-      <c r="N9" s="79">
-        <v>9311</v>
-      </c>
-      <c r="O9" s="79">
-        <v>10007</v>
-      </c>
-      <c r="P9" s="79">
-        <v>10486</v>
-      </c>
-      <c r="Q9" s="79">
-        <v>10608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="104"/>
-    </row>
-    <row r="11" spans="1:17" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="78">
-        <v>1907</v>
-      </c>
-      <c r="C12" s="78">
-        <v>2310</v>
-      </c>
-      <c r="D12" s="78">
-        <v>2506</v>
-      </c>
-      <c r="E12" s="78">
-        <v>2857</v>
-      </c>
-      <c r="F12" s="78">
-        <v>3135</v>
-      </c>
-      <c r="G12" s="78">
-        <v>3274</v>
-      </c>
-      <c r="K12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="78">
-        <v>1907</v>
-      </c>
-      <c r="M12" s="78">
-        <v>2312</v>
-      </c>
-      <c r="N12" s="78">
-        <v>2433</v>
-      </c>
-      <c r="O12" s="78">
-        <v>2570</v>
-      </c>
-      <c r="P12" s="78">
-        <v>2791</v>
-      </c>
-      <c r="Q12" s="78">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="78">
-        <v>1795</v>
-      </c>
-      <c r="C13" s="78">
-        <v>2037</v>
-      </c>
-      <c r="D13" s="78">
-        <v>2351</v>
-      </c>
-      <c r="E13" s="78">
-        <v>2713</v>
-      </c>
-      <c r="F13" s="78">
-        <v>3147</v>
-      </c>
-      <c r="G13" s="78">
-        <v>3357</v>
-      </c>
-      <c r="K13" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="78">
-        <v>1795</v>
-      </c>
-      <c r="M13" s="78">
-        <v>2007</v>
-      </c>
-      <c r="N13" s="78">
-        <v>2079</v>
-      </c>
-      <c r="O13" s="78">
-        <v>2317</v>
-      </c>
-      <c r="P13" s="78">
-        <v>2398</v>
-      </c>
-      <c r="Q13" s="78">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="78">
-        <v>1433</v>
-      </c>
-      <c r="C14" s="78">
-        <v>1674</v>
-      </c>
-      <c r="D14" s="78">
-        <v>1991</v>
-      </c>
-      <c r="E14" s="78">
-        <v>2380</v>
-      </c>
-      <c r="F14" s="78">
-        <v>2841</v>
-      </c>
-      <c r="G14" s="78">
-        <v>3108</v>
-      </c>
-      <c r="K14" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="78">
-        <v>1433</v>
-      </c>
-      <c r="M14" s="78">
-        <v>1644</v>
-      </c>
-      <c r="N14" s="78">
-        <v>1719</v>
-      </c>
-      <c r="O14" s="78">
-        <v>1900</v>
-      </c>
-      <c r="P14" s="78">
-        <v>2092</v>
-      </c>
-      <c r="Q14" s="78">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="78">
-        <v>1867</v>
-      </c>
-      <c r="C15" s="78">
-        <v>2097</v>
-      </c>
-      <c r="D15" s="78">
-        <v>2194</v>
-      </c>
-      <c r="E15" s="78">
-        <v>2294</v>
-      </c>
-      <c r="F15" s="78">
-        <v>2274</v>
-      </c>
-      <c r="G15" s="78">
-        <v>2431</v>
-      </c>
-      <c r="K15" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="78">
-        <v>1867</v>
-      </c>
-      <c r="M15" s="78">
-        <v>2122</v>
-      </c>
-      <c r="N15" s="78">
-        <v>2233</v>
-      </c>
-      <c r="O15" s="78">
-        <v>2310</v>
-      </c>
-      <c r="P15" s="78">
-        <v>2251</v>
-      </c>
-      <c r="Q15" s="78">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="79">
+      <c r="L16" s="67">
         <v>7003</v>
       </c>
-      <c r="C16" s="79">
-        <v>8118</v>
-      </c>
-      <c r="D16" s="79">
-        <v>9043</v>
-      </c>
-      <c r="E16" s="79">
-        <v>10244</v>
-      </c>
-      <c r="F16" s="79">
-        <v>11397</v>
-      </c>
-      <c r="G16" s="79">
-        <v>12170</v>
-      </c>
-      <c r="K16" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="79">
-        <v>7003</v>
-      </c>
-      <c r="M16" s="79">
+      <c r="M16" s="67">
         <v>8085</v>
       </c>
-      <c r="N16" s="79">
+      <c r="N16" s="67">
         <v>8464</v>
       </c>
-      <c r="O16" s="79">
+      <c r="O16" s="67">
         <v>9097</v>
       </c>
-      <c r="P16" s="79">
+      <c r="P16" s="67">
         <v>9532</v>
       </c>
-      <c r="Q16" s="79">
+      <c r="Q16" s="67">
         <v>9644</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="74"/>
-      <c r="K17" s="65"/>
+      <c r="A17" s="62"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="63"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
+      <c r="A19" s="50"/>
       <c r="B19">
         <f>B12*1.15</f>
         <v>2193.0499999999997</v>
@@ -2774,7 +2937,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="60"/>
+      <c r="A20" s="50"/>
       <c r="B20">
         <f t="shared" ref="B20:G23" si="2">B13*1.15</f>
         <v>2064.25</v>
@@ -2828,7 +2991,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
+      <c r="A21" s="49"/>
       <c r="B21">
         <f t="shared" si="2"/>
         <v>1647.9499999999998</v>
@@ -2853,7 +3016,7 @@
         <f t="shared" si="2"/>
         <v>3574.2</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="50" t="s">
         <v>24</v>
       </c>
       <c r="L21">
@@ -2882,7 +3045,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
+      <c r="A22" s="51"/>
       <c r="B22">
         <f t="shared" si="2"/>
         <v>2147.0499999999997</v>
@@ -2907,7 +3070,7 @@
         <f t="shared" si="2"/>
         <v>2795.6499999999996</v>
       </c>
-      <c r="K22" s="67" t="s">
+      <c r="K22" s="56" t="s">
         <v>25</v>
       </c>
       <c r="L22">
@@ -2936,7 +3099,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="63"/>
+      <c r="A23" s="52"/>
       <c r="B23">
         <f t="shared" si="2"/>
         <v>8053.45</v>
@@ -2990,13 +3153,13 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -3004,27 +3167,29 @@
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="63"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="63"/>
+    <row r="26" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="61" t="s">
+        <v>123</v>
+      </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -3032,29 +3197,29 @@
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="88" t="s">
+      <c r="A27" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="89"/>
-      <c r="I27" s="90"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="75"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
@@ -3062,451 +3227,451 @@
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="92">
+      <c r="B28" s="77">
         <v>2137</v>
       </c>
-      <c r="C28" s="92">
+      <c r="C28" s="77">
         <v>2802</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="77">
         <v>3209</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="77">
         <v>3586</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="77">
         <v>3973</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="77">
         <v>4021</v>
       </c>
-      <c r="H28" s="89"/>
-      <c r="I28" s="96">
+      <c r="H28" s="74"/>
+      <c r="I28" s="81">
         <f>B28-B38</f>
         <v>102</v>
       </c>
-      <c r="J28" s="96">
+      <c r="J28" s="81">
         <f t="shared" ref="J28:N31" si="4">C28-C38</f>
         <v>255</v>
       </c>
-      <c r="K28" s="96">
+      <c r="K28" s="81">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="L28" s="96">
+      <c r="L28" s="81">
         <f t="shared" si="4"/>
         <v>326</v>
       </c>
-      <c r="M28" s="96">
+      <c r="M28" s="81">
         <f t="shared" si="4"/>
         <v>362</v>
       </c>
-      <c r="N28" s="96">
+      <c r="N28" s="81">
         <f>G28-G38</f>
         <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="92">
+      <c r="B29" s="77">
         <v>2028</v>
       </c>
-      <c r="C29" s="92">
+      <c r="C29" s="77">
         <v>2554</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="77">
         <v>2750</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="77">
         <v>3132</v>
       </c>
-      <c r="F29" s="92">
+      <c r="F29" s="77">
         <v>3502</v>
       </c>
-      <c r="G29" s="92">
+      <c r="G29" s="77">
         <v>3726</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="96">
+      <c r="H29" s="74"/>
+      <c r="I29" s="81">
         <f t="shared" ref="I29:I31" si="5">B29-B39</f>
         <v>96</v>
       </c>
-      <c r="J29" s="96">
+      <c r="J29" s="81">
         <f t="shared" si="4"/>
         <v>232</v>
       </c>
-      <c r="K29" s="96">
+      <c r="K29" s="81">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="L29" s="96">
+      <c r="L29" s="81">
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="M29" s="96">
+      <c r="M29" s="81">
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
-      <c r="N29" s="96">
+      <c r="N29" s="81">
         <f t="shared" si="4"/>
         <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="92">
+      <c r="B30" s="77">
         <v>1616</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="77">
         <v>1991</v>
       </c>
-      <c r="D30" s="92">
+      <c r="D30" s="77">
         <v>2264</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="77">
         <v>2742</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="77">
         <v>3199</v>
       </c>
-      <c r="G30" s="92">
+      <c r="G30" s="77">
         <v>3283</v>
       </c>
-      <c r="H30" s="89"/>
-      <c r="I30" s="96">
+      <c r="H30" s="74"/>
+      <c r="I30" s="81">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="J30" s="96">
+      <c r="J30" s="81">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
-      <c r="K30" s="96">
+      <c r="K30" s="81">
         <f t="shared" si="4"/>
         <v>206</v>
       </c>
-      <c r="L30" s="96">
+      <c r="L30" s="81">
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
-      <c r="M30" s="96">
+      <c r="M30" s="81">
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
-      <c r="N30" s="96">
+      <c r="N30" s="81">
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="92">
+      <c r="B31" s="77">
         <v>2094</v>
       </c>
-      <c r="C31" s="92">
+      <c r="C31" s="77">
         <v>2531</v>
       </c>
-      <c r="D31" s="92">
+      <c r="D31" s="77">
         <v>2955</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="77">
         <v>3054</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="77">
         <v>3405</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="77">
         <v>3489</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="96">
+      <c r="H31" s="74"/>
+      <c r="I31" s="81">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J31" s="96">
+      <c r="J31" s="81">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="K31" s="96">
+      <c r="K31" s="81">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="L31" s="96">
+      <c r="L31" s="81">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="M31" s="96">
+      <c r="M31" s="81">
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
-      <c r="N31" s="96">
+      <c r="N31" s="81">
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
-      <c r="O31" s="67"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="93">
+      <c r="B32" s="78">
         <v>7875</v>
       </c>
-      <c r="C32" s="93">
+      <c r="C32" s="78">
         <v>9877</v>
       </c>
-      <c r="D32" s="93">
+      <c r="D32" s="78">
         <v>11178</v>
       </c>
-      <c r="E32" s="93">
+      <c r="E32" s="78">
         <v>12515</v>
       </c>
-      <c r="F32" s="93">
+      <c r="F32" s="78">
         <v>14079</v>
       </c>
-      <c r="G32" s="93">
+      <c r="G32" s="78">
         <v>14518</v>
       </c>
-      <c r="H32" s="89"/>
-      <c r="I32" s="90"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="75"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
     </row>
     <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.35">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="90"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="75"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="90"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="75"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="90"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="75"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="108" t="s">
+      <c r="A36" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="108" t="s">
+      <c r="D36" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="108" t="s">
+      <c r="E36" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="108" t="s">
+      <c r="F36" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="108" t="s">
+      <c r="G36" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="111"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
     </row>
     <row r="37" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="111"/>
+      <c r="A37" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="105"/>
     </row>
     <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="92">
+      <c r="B38" s="77">
         <v>2035</v>
       </c>
-      <c r="C38" s="92">
+      <c r="C38" s="77">
         <v>2547</v>
       </c>
-      <c r="D38" s="92">
+      <c r="D38" s="77">
         <v>2917</v>
       </c>
-      <c r="E38" s="92">
+      <c r="E38" s="77">
         <v>3260</v>
       </c>
-      <c r="F38" s="92">
+      <c r="F38" s="77">
         <v>3611</v>
       </c>
-      <c r="G38" s="92">
+      <c r="G38" s="77">
         <v>3656</v>
       </c>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="92">
+      <c r="B39" s="77">
         <v>1932</v>
       </c>
-      <c r="C39" s="92">
+      <c r="C39" s="77">
         <v>2322</v>
       </c>
-      <c r="D39" s="92">
+      <c r="D39" s="77">
         <v>2500</v>
       </c>
-      <c r="E39" s="92">
+      <c r="E39" s="77">
         <v>2848</v>
       </c>
-      <c r="F39" s="92">
+      <c r="F39" s="77">
         <v>3184</v>
       </c>
-      <c r="G39" s="92">
+      <c r="G39" s="77">
         <v>3387</v>
       </c>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="92">
+      <c r="B40" s="77">
         <v>1539</v>
       </c>
-      <c r="C40" s="92">
+      <c r="C40" s="77">
         <v>1810</v>
       </c>
-      <c r="D40" s="92">
+      <c r="D40" s="77">
         <v>2058</v>
       </c>
-      <c r="E40" s="92">
+      <c r="E40" s="77">
         <v>2493</v>
       </c>
-      <c r="F40" s="92">
+      <c r="F40" s="77">
         <v>2908</v>
       </c>
-      <c r="G40" s="92">
+      <c r="G40" s="77">
         <v>2984</v>
       </c>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="K40" s="60"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="K40" s="50"/>
     </row>
     <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="92">
+      <c r="B41" s="77">
         <v>1994</v>
       </c>
-      <c r="C41" s="92">
+      <c r="C41" s="77">
         <v>2301</v>
       </c>
-      <c r="D41" s="92">
+      <c r="D41" s="77">
         <v>2687</v>
       </c>
-      <c r="E41" s="92">
+      <c r="E41" s="77">
         <v>2776</v>
       </c>
-      <c r="F41" s="92">
+      <c r="F41" s="77">
         <v>3096</v>
       </c>
-      <c r="G41" s="92">
+      <c r="G41" s="77">
         <v>3171</v>
       </c>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
     </row>
     <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="93">
+      <c r="B42" s="78">
         <v>7500</v>
       </c>
-      <c r="C42" s="93">
+      <c r="C42" s="78">
         <v>8979</v>
       </c>
-      <c r="D42" s="93">
+      <c r="D42" s="78">
         <v>10162</v>
       </c>
-      <c r="E42" s="93">
+      <c r="E42" s="78">
         <v>11377</v>
       </c>
-      <c r="F42" s="93">
+      <c r="F42" s="78">
         <v>12799</v>
       </c>
-      <c r="G42" s="93">
+      <c r="G42" s="78">
         <v>13198</v>
       </c>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
@@ -3516,13 +3681,13 @@
       <c r="Q42" s="26"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="63"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
@@ -3532,13 +3697,13 @@
       <c r="Q43" s="26"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="63"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
       <c r="M44" s="26"/>
@@ -3548,13 +3713,13 @@
       <c r="Q44" s="26"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="63"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
@@ -3564,152 +3729,849 @@
       <c r="Q45" s="26"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="60"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="60"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="70"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="61"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="K49" s="42"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="63"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="63"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="63"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="63"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="63"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
+      <c r="A46" s="50"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+    </row>
+    <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+      <c r="A47" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J47" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="115"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="121"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="121"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="P49" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="118">
+        <v>2137</v>
+      </c>
+      <c r="C50" s="118">
+        <v>2802</v>
+      </c>
+      <c r="D50" s="118">
+        <v>3209</v>
+      </c>
+      <c r="E50" s="118">
+        <v>3586</v>
+      </c>
+      <c r="F50" s="118">
+        <v>3973</v>
+      </c>
+      <c r="G50" s="118">
+        <v>4018</v>
+      </c>
+      <c r="J50" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="118">
+        <v>2137</v>
+      </c>
+      <c r="L50" s="118">
+        <v>2799</v>
+      </c>
+      <c r="M50" s="118">
+        <v>3116</v>
+      </c>
+      <c r="N50" s="118">
+        <v>3442</v>
+      </c>
+      <c r="O50" s="118">
+        <v>3703</v>
+      </c>
+      <c r="P50" s="118">
+        <v>3740</v>
+      </c>
+      <c r="Q50" s="59"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="118">
+        <v>2028</v>
+      </c>
+      <c r="C51" s="118">
+        <v>2554</v>
+      </c>
+      <c r="D51" s="118">
+        <v>2750</v>
+      </c>
+      <c r="E51" s="118">
+        <v>3132</v>
+      </c>
+      <c r="F51" s="118">
+        <v>3502</v>
+      </c>
+      <c r="G51" s="118">
+        <v>3722</v>
+      </c>
+      <c r="J51" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="118">
+        <v>2028</v>
+      </c>
+      <c r="L51" s="118">
+        <v>2551</v>
+      </c>
+      <c r="M51" s="118">
+        <v>2763</v>
+      </c>
+      <c r="N51" s="118">
+        <v>2988</v>
+      </c>
+      <c r="O51" s="118">
+        <v>3337</v>
+      </c>
+      <c r="P51" s="118">
+        <v>3444</v>
+      </c>
+      <c r="Q51" s="60"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="118">
+        <v>1616</v>
+      </c>
+      <c r="C52" s="118">
+        <v>1991</v>
+      </c>
+      <c r="D52" s="118">
+        <v>2264</v>
+      </c>
+      <c r="E52" s="118">
+        <v>2742</v>
+      </c>
+      <c r="F52" s="118">
+        <v>3094</v>
+      </c>
+      <c r="G52" s="118">
+        <v>3279</v>
+      </c>
+      <c r="J52" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="118">
+        <v>1616</v>
+      </c>
+      <c r="L52" s="118">
+        <v>2091</v>
+      </c>
+      <c r="M52" s="118">
+        <v>2276</v>
+      </c>
+      <c r="N52" s="118">
+        <v>2703</v>
+      </c>
+      <c r="O52" s="118">
+        <v>2929</v>
+      </c>
+      <c r="P52" s="118">
+        <v>3001</v>
+      </c>
+      <c r="Q52" s="60"/>
+    </row>
+    <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="118">
+        <v>2094</v>
+      </c>
+      <c r="C53" s="118">
+        <v>2531</v>
+      </c>
+      <c r="D53" s="118">
+        <v>2955</v>
+      </c>
+      <c r="E53" s="118">
+        <v>3054</v>
+      </c>
+      <c r="F53" s="118">
+        <v>3300</v>
+      </c>
+      <c r="G53" s="118">
+        <v>3485</v>
+      </c>
+      <c r="J53" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="118">
+        <v>2094</v>
+      </c>
+      <c r="L53" s="118">
+        <v>2631</v>
+      </c>
+      <c r="M53" s="118">
+        <v>2862</v>
+      </c>
+      <c r="N53" s="118">
+        <v>3015</v>
+      </c>
+      <c r="O53" s="118">
+        <v>3135</v>
+      </c>
+      <c r="P53" s="118">
+        <v>3207</v>
+      </c>
+      <c r="Q53" s="60"/>
+    </row>
+    <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="118">
+        <v>7875</v>
+      </c>
+      <c r="C54" s="118">
+        <v>9877</v>
+      </c>
+      <c r="D54" s="118">
+        <v>11178</v>
+      </c>
+      <c r="E54" s="118">
+        <v>12515</v>
+      </c>
+      <c r="F54" s="118">
+        <v>13868</v>
+      </c>
+      <c r="G54" s="118">
+        <v>14504</v>
+      </c>
+      <c r="J54" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" s="118">
+        <v>7875</v>
+      </c>
+      <c r="L54" s="118">
+        <v>10073</v>
+      </c>
+      <c r="M54" s="118">
+        <v>11017</v>
+      </c>
+      <c r="N54" s="118">
+        <v>12148</v>
+      </c>
+      <c r="O54" s="118">
+        <v>13105</v>
+      </c>
+      <c r="P54" s="118">
+        <v>13392</v>
+      </c>
+      <c r="Q54" s="60"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62" s="41">
-        <v>1.500200025003E+19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="41">
-        <v>1.5002000250025001E+19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="41">
-        <v>1.5002000300029999E+19</v>
-      </c>
+      <c r="A55" s="122"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="59"/>
+    </row>
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="115"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="121"/>
+      <c r="O56" s="121"/>
+      <c r="P56" s="121"/>
+    </row>
+    <row r="57" spans="1:17" ht="32" x14ac:dyDescent="0.35">
+      <c r="A57" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="P57" s="123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="124"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="J58" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="124"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="124"/>
+      <c r="P58" s="124"/>
+    </row>
+    <row r="59" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="118">
+        <v>2035</v>
+      </c>
+      <c r="C59" s="118">
+        <v>2547</v>
+      </c>
+      <c r="D59" s="118">
+        <v>2917</v>
+      </c>
+      <c r="E59" s="118">
+        <v>3260</v>
+      </c>
+      <c r="F59" s="118">
+        <v>3611</v>
+      </c>
+      <c r="G59" s="118">
+        <v>3653</v>
+      </c>
+      <c r="J59" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="118">
+        <v>2035</v>
+      </c>
+      <c r="L59" s="118">
+        <v>2544</v>
+      </c>
+      <c r="M59" s="118">
+        <v>2832</v>
+      </c>
+      <c r="N59" s="118">
+        <v>3129</v>
+      </c>
+      <c r="O59" s="118">
+        <v>3366</v>
+      </c>
+      <c r="P59" s="118">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="118">
+        <v>1932</v>
+      </c>
+      <c r="C60" s="118">
+        <v>2322</v>
+      </c>
+      <c r="D60" s="118">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="118">
+        <v>2848</v>
+      </c>
+      <c r="F60" s="118">
+        <v>3184</v>
+      </c>
+      <c r="G60" s="118">
+        <v>3384</v>
+      </c>
+      <c r="J60" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="118">
+        <v>1932</v>
+      </c>
+      <c r="L60" s="118">
+        <v>2319</v>
+      </c>
+      <c r="M60" s="118">
+        <v>2512</v>
+      </c>
+      <c r="N60" s="118">
+        <v>2716</v>
+      </c>
+      <c r="O60" s="118">
+        <v>3034</v>
+      </c>
+      <c r="P60" s="118">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="118">
+        <v>1539</v>
+      </c>
+      <c r="C61" s="118">
+        <v>1810</v>
+      </c>
+      <c r="D61" s="118">
+        <v>2058</v>
+      </c>
+      <c r="E61" s="118">
+        <v>2493</v>
+      </c>
+      <c r="F61" s="118">
+        <v>2813</v>
+      </c>
+      <c r="G61" s="118">
+        <v>2981</v>
+      </c>
+      <c r="J61" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="118">
+        <v>1539</v>
+      </c>
+      <c r="L61" s="118">
+        <v>1901</v>
+      </c>
+      <c r="M61" s="118">
+        <v>2069</v>
+      </c>
+      <c r="N61" s="118">
+        <v>2458</v>
+      </c>
+      <c r="O61" s="118">
+        <v>2663</v>
+      </c>
+      <c r="P61" s="118">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="118">
+        <v>1994</v>
+      </c>
+      <c r="C62" s="118">
+        <v>2301</v>
+      </c>
+      <c r="D62" s="118">
+        <v>2687</v>
+      </c>
+      <c r="E62" s="118">
+        <v>2776</v>
+      </c>
+      <c r="F62" s="118">
+        <v>3000</v>
+      </c>
+      <c r="G62" s="118">
+        <v>3168</v>
+      </c>
+      <c r="J62" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="118">
+        <v>1994</v>
+      </c>
+      <c r="L62" s="118">
+        <v>2392</v>
+      </c>
+      <c r="M62" s="118">
+        <v>2602</v>
+      </c>
+      <c r="N62" s="118">
+        <v>2741</v>
+      </c>
+      <c r="O62" s="118">
+        <v>2850</v>
+      </c>
+      <c r="P62" s="118">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="118">
+        <v>7500</v>
+      </c>
+      <c r="C63" s="118">
+        <v>8979</v>
+      </c>
+      <c r="D63" s="118">
+        <v>10162</v>
+      </c>
+      <c r="E63" s="118">
+        <v>11377</v>
+      </c>
+      <c r="F63" s="118">
+        <v>12607</v>
+      </c>
+      <c r="G63" s="118">
+        <v>13186</v>
+      </c>
+      <c r="J63" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="118">
+        <v>7500</v>
+      </c>
+      <c r="L63" s="118">
+        <v>9157</v>
+      </c>
+      <c r="M63" s="118">
+        <v>10016</v>
+      </c>
+      <c r="N63" s="118">
+        <v>11043</v>
+      </c>
+      <c r="O63" s="118">
+        <v>11914</v>
+      </c>
+      <c r="P63" s="118">
+        <v>12174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38">
+        <f>B50-B59</f>
+        <v>102</v>
+      </c>
+      <c r="C66" s="38">
+        <f t="shared" ref="C66:G66" si="6">C50-C59</f>
+        <v>255</v>
+      </c>
+      <c r="D66" s="38">
+        <f t="shared" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="E66" s="38">
+        <f t="shared" si="6"/>
+        <v>326</v>
+      </c>
+      <c r="F66" s="38">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="G66" s="38">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="K66" s="38">
+        <f>K50-K59</f>
+        <v>102</v>
+      </c>
+      <c r="L66" s="38">
+        <f t="shared" ref="L66:P66" si="7">L50-L59</f>
+        <v>255</v>
+      </c>
+      <c r="M66" s="38">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="N66" s="38">
+        <f t="shared" si="7"/>
+        <v>313</v>
+      </c>
+      <c r="O66" s="38">
+        <f t="shared" si="7"/>
+        <v>337</v>
+      </c>
+      <c r="P66" s="38">
+        <f t="shared" si="7"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B67" s="38">
+        <f t="shared" ref="B67:G69" si="8">B51-B60</f>
+        <v>96</v>
+      </c>
+      <c r="C67" s="38">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+      <c r="D67" s="38">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="E67" s="38">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="F67" s="38">
+        <f t="shared" si="8"/>
+        <v>318</v>
+      </c>
+      <c r="G67" s="38">
+        <f t="shared" si="8"/>
+        <v>338</v>
+      </c>
+      <c r="K67" s="38">
+        <f t="shared" ref="K67:P69" si="9">K51-K60</f>
+        <v>96</v>
+      </c>
+      <c r="L67" s="38">
+        <f t="shared" si="9"/>
+        <v>232</v>
+      </c>
+      <c r="M67" s="38">
+        <f t="shared" si="9"/>
+        <v>251</v>
+      </c>
+      <c r="N67" s="38">
+        <f t="shared" si="9"/>
+        <v>272</v>
+      </c>
+      <c r="O67" s="38">
+        <f t="shared" si="9"/>
+        <v>303</v>
+      </c>
+      <c r="P67" s="38">
+        <f t="shared" si="9"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B68" s="38">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="C68" s="38">
+        <f t="shared" si="8"/>
+        <v>181</v>
+      </c>
+      <c r="D68" s="38">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="E68" s="38">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="F68" s="38">
+        <f t="shared" si="8"/>
+        <v>281</v>
+      </c>
+      <c r="G68" s="38">
+        <f t="shared" si="8"/>
+        <v>298</v>
+      </c>
+      <c r="K68" s="38">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="L68" s="38">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="M68" s="38">
+        <f t="shared" si="9"/>
+        <v>207</v>
+      </c>
+      <c r="N68" s="38">
+        <f t="shared" si="9"/>
+        <v>245</v>
+      </c>
+      <c r="O68" s="38">
+        <f t="shared" si="9"/>
+        <v>266</v>
+      </c>
+      <c r="P68" s="38">
+        <f t="shared" si="9"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B69" s="38">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="C69" s="38">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="D69" s="38">
+        <f t="shared" si="8"/>
+        <v>268</v>
+      </c>
+      <c r="E69" s="38">
+        <f t="shared" si="8"/>
+        <v>278</v>
+      </c>
+      <c r="F69" s="38">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="G69" s="38">
+        <f t="shared" si="8"/>
+        <v>317</v>
+      </c>
+      <c r="K69" s="38">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="L69" s="38">
+        <f t="shared" si="9"/>
+        <v>239</v>
+      </c>
+      <c r="M69" s="38">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+      <c r="N69" s="38">
+        <f t="shared" si="9"/>
+        <v>274</v>
+      </c>
+      <c r="O69" s="38">
+        <f t="shared" si="9"/>
+        <v>285</v>
+      </c>
+      <c r="P69" s="38">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="29">
+    <mergeCell ref="K48:P48"/>
+    <mergeCell ref="J55:P55"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="K10:Q10"/>
     <mergeCell ref="A33:G35"/>
@@ -3742,16 +4604,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3816,16 +4678,16 @@
       <c r="H4" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -3944,17 +4806,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="37" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4222,8 +5084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76238118-1ECA-407C-92C2-D2A618A59C9F}">
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4261,12 +5123,12 @@
         <v>2030</v>
       </c>
       <c r="H1" s="12"/>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="116"/>
+      <c r="K1" s="110"/>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4274,11 +5136,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="34">
-        <f>U31</f>
+        <f>IF($I$2="a",U31,IF($I$2="b",U45,U59))</f>
         <v>7500</v>
       </c>
       <c r="C2" s="34">
-        <f t="shared" ref="C2:G2" si="0">V31</f>
+        <f t="shared" ref="C2:G2" si="0">IF($I$2="a",V31,IF($I$2="b",V45,V59))</f>
         <v>8979</v>
       </c>
       <c r="D2" s="34">
@@ -4297,6 +5159,12 @@
         <f t="shared" si="0"/>
         <v>13198</v>
       </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -4310,16 +5178,16 @@
         <f>L2*K2</f>
         <v>42.919999999999995</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="26">
         <v>3000</v>
@@ -4339,7 +5207,7 @@
       <c r="G3" s="14">
         <v>1000</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="39"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -4353,49 +5221,49 @@
         <f>L3*K3</f>
         <v>2685.93</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
     </row>
     <row r="4" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8">
-        <f>B3*$K$3*0.5</f>
+        <f t="shared" ref="B4:G4" si="1">B3*$K$3*0.5</f>
         <v>1455</v>
       </c>
       <c r="C4" s="8">
-        <f>C3*$K$3*0.5</f>
+        <f t="shared" si="1"/>
         <v>2037</v>
       </c>
       <c r="D4" s="8">
-        <f>D3*$K$3*0.5</f>
+        <f t="shared" si="1"/>
         <v>2258.16</v>
       </c>
       <c r="E4" s="8">
-        <f>E3*$K$3*0.5</f>
+        <f t="shared" si="1"/>
         <v>970</v>
       </c>
       <c r="F4" s="8">
-        <f>F3*$K$3*0.5</f>
+        <f t="shared" si="1"/>
         <v>727.5</v>
       </c>
       <c r="G4" s="8">
-        <f>G3*$K$3*0.5</f>
+        <f t="shared" si="1"/>
         <v>485</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="85"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
+      <c r="I4" s="70"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -4430,18 +5298,18 @@
         <v>2878</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M9" si="1">L5*K5</f>
+        <f t="shared" ref="M5:M9" si="2">L5*K5</f>
         <v>1352.6599999999999</v>
       </c>
-      <c r="R5" s="51"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
+      <c r="R5" s="41"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
     </row>
     <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="8">
         <f>714*I6</f>
@@ -4468,7 +5336,7 @@
         <v>1651.5253866562493</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I6" s="18">
         <v>1.1499999999999999</v>
@@ -4483,18 +5351,18 @@
         <v>1860</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="R6" s="55"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
+      <c r="R6" s="45"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8">
         <v>1200</v>
@@ -4526,51 +5394,51 @@
         <v>62</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73.78</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="8">
         <f>B7</f>
         <v>1200</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" ref="C8:G8" si="2">C7</f>
+        <f t="shared" ref="C8:G8" si="3">C7</f>
         <v>1200</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="L8" s="8"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -4603,7 +5471,7 @@
         <v>1.2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="15"/>
@@ -4613,27 +5481,27 @@
         <v>13</v>
       </c>
       <c r="B10" s="16">
-        <f>B2-B4-(B5*$K$9)-(B6*$K$19)-(B8*$K$11)-(B9*$K$12)</f>
+        <f t="shared" ref="B10:G10" si="4">B2-B4-(B5*$K$9)-(B6*$K$19)-(B8*$K$11)-(B9*$K$12)</f>
         <v>3653.9330000000004</v>
       </c>
       <c r="C10" s="16">
-        <f>C2-C4-(C5*$K$9)-(C6*$K$19)-(C8*$K$11)-(C9*$K$12)</f>
+        <f t="shared" si="4"/>
         <v>4431.4629500000001</v>
       </c>
       <c r="D10" s="16">
-        <f>D2-D4-(D5*$K$9)-(D6*$K$19)-(D8*$K$11)-(D9*$K$12)</f>
+        <f t="shared" si="4"/>
         <v>5256.3123925000009</v>
       </c>
       <c r="E10" s="16">
-        <f>E2-E4-(E5*$K$9)-(E6*$K$19)-(E8*$K$11)-(E9*$K$12)</f>
+        <f t="shared" si="4"/>
         <v>7601.2732513749997</v>
       </c>
       <c r="F10" s="16">
-        <f>F2-F4-(F5*$K$9)-(F6*$K$19)-(F8*$K$11)-(F9*$K$12)</f>
+        <f t="shared" si="4"/>
         <v>9084.0742390812502</v>
       </c>
       <c r="G10" s="16">
-        <f>G2-G4-(G5*$K$9)-(G6*$K$19)-(G8*$K$11)-(G9*$K$12)</f>
+        <f t="shared" si="4"/>
         <v>9516.6203749434389</v>
       </c>
       <c r="H10" s="8"/>
@@ -4642,25 +5510,25 @@
       <c r="R10" s="15"/>
     </row>
     <row r="11" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="124">
+      <c r="A11" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="86">
         <v>0</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="87">
         <v>0.15</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="87">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="87">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="87">
         <v>0.35</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="87">
         <v>0.35</v>
       </c>
       <c r="H11" s="8"/>
@@ -4677,34 +5545,34 @@
         <f>L11*K11</f>
         <v>1239.5999999999999</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="113"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="107"/>
     </row>
     <row r="12" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="124">
+      <c r="A12" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="86">
         <v>0</v>
       </c>
-      <c r="C12" s="133">
+      <c r="C12" s="95">
         <v>0.1</v>
       </c>
-      <c r="D12" s="125">
+      <c r="D12" s="87">
         <v>0.125</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="87">
         <v>0.15</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="87">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="87">
         <v>0.2</v>
       </c>
       <c r="H12" s="16"/>
@@ -4718,74 +5586,74 @@
         <v>53</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M15" si="3">L12*K12</f>
+        <f t="shared" ref="M12:M15" si="5">L12*K12</f>
         <v>10.600000000000001</v>
       </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="113"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="107"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="127">
+      <c r="A13" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="89">
         <v>0</v>
       </c>
-      <c r="C13" s="133">
+      <c r="C13" s="95">
         <v>0.1</v>
       </c>
-      <c r="D13" s="125">
+      <c r="D13" s="87">
         <v>0.125</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="87">
         <v>0.15</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="87">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="87">
         <v>0.2</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="101"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="83"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="128">
+      <c r="A14" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="90">
         <f>B10*0.7/0.97</f>
         <v>2636.8588659793818</v>
       </c>
-      <c r="C14" s="128">
-        <f t="shared" ref="C14:G14" si="4">C10*0.7/0.97</f>
+      <c r="C14" s="90">
+        <f t="shared" ref="C14:G14" si="6">C10*0.7/0.97</f>
         <v>3197.9629536082475</v>
       </c>
-      <c r="D14" s="128">
-        <f t="shared" si="4"/>
+      <c r="D14" s="90">
+        <f t="shared" si="6"/>
         <v>3793.2151286082476</v>
       </c>
-      <c r="E14" s="128">
-        <f t="shared" si="4"/>
+      <c r="E14" s="90">
+        <f t="shared" si="6"/>
         <v>5485.4549236726798</v>
       </c>
-      <c r="F14" s="128">
-        <f t="shared" si="4"/>
+      <c r="F14" s="90">
+        <f t="shared" si="6"/>
         <v>6555.5174921204889</v>
       </c>
-      <c r="G14" s="128">
-        <f t="shared" si="4"/>
+      <c r="G14" s="90">
+        <f t="shared" si="6"/>
         <v>6867.6641881035121</v>
       </c>
       <c r="J14" t="s">
@@ -4798,36 +5666,36 @@
         <v>6598</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1088.3376070528977</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="126" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="128">
+      <c r="A15" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="90">
         <f>B10*0.3/0.47</f>
         <v>2332.2976595744685</v>
       </c>
-      <c r="C15" s="128">
-        <f t="shared" ref="C15:G15" si="5">C10*0.3/0.47</f>
+      <c r="C15" s="90">
+        <f t="shared" ref="C15:G15" si="7">C10*0.3/0.47</f>
         <v>2828.593372340426</v>
       </c>
-      <c r="D15" s="128">
-        <f t="shared" si="5"/>
+      <c r="D15" s="90">
+        <f t="shared" si="7"/>
         <v>3355.0930164893621</v>
       </c>
-      <c r="E15" s="128">
-        <f t="shared" si="5"/>
+      <c r="E15" s="90">
+        <f t="shared" si="7"/>
         <v>4851.8765434308507</v>
       </c>
-      <c r="F15" s="128">
-        <f t="shared" si="5"/>
+      <c r="F15" s="90">
+        <f t="shared" si="7"/>
         <v>5798.3452589880317</v>
       </c>
-      <c r="G15" s="128">
-        <f t="shared" si="5"/>
+      <c r="G15" s="90">
+        <f t="shared" si="7"/>
         <v>6074.4385371979406</v>
       </c>
       <c r="H15" s="8"/>
@@ -4838,118 +5706,118 @@
         <v>0.97</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="129">
+      <c r="A16" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="91">
         <f>B14*0.5*B11</f>
         <v>0</v>
       </c>
-      <c r="C16" s="128">
-        <f t="shared" ref="C16:G16" si="6">C14*0.5*C11</f>
+      <c r="C16" s="90">
+        <f t="shared" ref="C16:G16" si="8">C14*0.5*C11</f>
         <v>239.84722152061855</v>
       </c>
-      <c r="D16" s="128">
-        <f t="shared" si="6"/>
+      <c r="D16" s="90">
+        <f t="shared" si="8"/>
         <v>426.73670196842784</v>
       </c>
-      <c r="E16" s="128">
-        <f t="shared" si="6"/>
+      <c r="E16" s="90">
+        <f t="shared" si="8"/>
         <v>754.25005200499356</v>
       </c>
-      <c r="F16" s="128">
-        <f t="shared" si="6"/>
+      <c r="F16" s="90">
+        <f t="shared" si="8"/>
         <v>1147.2155611210856</v>
       </c>
-      <c r="G16" s="128">
-        <f t="shared" si="6"/>
+      <c r="G16" s="90">
+        <f t="shared" si="8"/>
         <v>1201.8412329181144</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A17" s="126" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="129">
+      <c r="A17" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="91">
         <f>B14*0.47*B12*10%</f>
         <v>0</v>
       </c>
-      <c r="C17" s="128">
-        <f t="shared" ref="C17:G17" si="7">C14*0.47*C12*10%</f>
+      <c r="C17" s="90">
+        <f t="shared" ref="C17:G17" si="9">C14*0.47*C12*10%</f>
         <v>15.030425881958763</v>
       </c>
-      <c r="D17" s="128">
-        <f t="shared" si="7"/>
+      <c r="D17" s="90">
+        <f t="shared" si="9"/>
         <v>22.285138880573456</v>
       </c>
-      <c r="E17" s="128">
-        <f t="shared" si="7"/>
+      <c r="E17" s="90">
+        <f t="shared" si="9"/>
         <v>38.672457211892386</v>
       </c>
-      <c r="F17" s="128">
-        <f t="shared" si="7"/>
+      <c r="F17" s="90">
+        <f t="shared" si="9"/>
         <v>53.91913137269102</v>
       </c>
-      <c r="G17" s="128">
-        <f t="shared" si="7"/>
+      <c r="G17" s="90">
+        <f t="shared" si="9"/>
         <v>64.556043368173022</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A18" s="126" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="129">
+      <c r="A18" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="91">
         <f>B15*0.47*B13*10%</f>
         <v>0</v>
       </c>
-      <c r="C18" s="128">
-        <f t="shared" ref="C18:G18" si="8">C15*0.47*C13*10%</f>
+      <c r="C18" s="90">
+        <f t="shared" ref="C18:G18" si="10">C15*0.47*C13*10%</f>
         <v>13.294388850000002</v>
       </c>
-      <c r="D18" s="128">
-        <f t="shared" si="8"/>
+      <c r="D18" s="90">
+        <f t="shared" si="10"/>
         <v>19.711171471875005</v>
       </c>
-      <c r="E18" s="128">
-        <f t="shared" si="8"/>
+      <c r="E18" s="90">
+        <f t="shared" si="10"/>
         <v>34.205729631187495</v>
       </c>
-      <c r="F18" s="128">
-        <f t="shared" si="8"/>
+      <c r="F18" s="90">
+        <f t="shared" si="10"/>
         <v>47.691389755176559</v>
       </c>
-      <c r="G18" s="128">
-        <f t="shared" si="8"/>
+      <c r="G18" s="90">
+        <f t="shared" si="10"/>
         <v>57.099722249660637</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A19" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132">
+      <c r="A19" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94">
         <v>267.21264736649482</v>
       </c>
-      <c r="D19" s="132">
+      <c r="D19" s="94">
         <v>467.31055664764824</v>
       </c>
-      <c r="E19" s="132">
+      <c r="E19" s="94">
         <v>824.65978413242078</v>
       </c>
-      <c r="F19" s="132">
+      <c r="F19" s="94">
         <v>1245.3844355655899</v>
       </c>
-      <c r="G19" s="132">
+      <c r="G19" s="94">
         <v>1319.376400023086</v>
       </c>
       <c r="H19" s="8"/>
@@ -4968,17 +5836,17 @@
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
+      <c r="B20" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="8"/>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K20">
         <v>0.1</v>
@@ -5020,9 +5888,9 @@
         <v>2379.1550937358597</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="122">
+        <v>117</v>
+      </c>
+      <c r="I21" s="84">
         <v>0.5</v>
       </c>
       <c r="M21">
@@ -5103,11 +5971,11 @@
         <v>63</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" ref="B24:C24" si="9">B22+B23</f>
+        <f t="shared" ref="B24:C24" si="11">B22+B23</f>
         <v>0</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>833.33333333333337</v>
       </c>
       <c r="D24" s="8">
@@ -5115,11 +5983,11 @@
         <v>2916.666666666667</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24:F24" si="10">E22+E23</f>
+        <f t="shared" ref="E24:F24" si="12">E22+E23</f>
         <v>4377.0833333333339</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4833.3333333333339</v>
       </c>
       <c r="G24" s="8">
@@ -5155,101 +6023,109 @@
         <f>G24*0.33*0.25</f>
         <v>437.42187500000006</v>
       </c>
+      <c r="T25" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
     </row>
     <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B26" s="10">
-        <f>B10-B21-B25+B19</f>
+        <f t="shared" ref="B26:G26" si="13">B10-B21-B25+B19</f>
         <v>3197.1913750000003</v>
       </c>
       <c r="C26" s="10">
-        <f>C10-C21-C25+C19</f>
+        <f t="shared" si="13"/>
         <v>3936.4093952831613</v>
       </c>
       <c r="D26" s="10">
-        <f>D10-D21-D25+D19</f>
+        <f t="shared" si="13"/>
         <v>3926.4719343559823</v>
       </c>
       <c r="E26" s="10">
-        <f>E10-E21-E25+E19</f>
+        <f t="shared" si="13"/>
         <v>6164.5053476636704</v>
       </c>
       <c r="F26" s="10">
-        <f>F10-F21-F25+F19</f>
+        <f t="shared" si="13"/>
         <v>7659.6901148765273</v>
       </c>
       <c r="G26" s="10">
-        <f>G10-G21-G25+G19</f>
+        <f t="shared" si="13"/>
         <v>8019.419806230665</v>
       </c>
-      <c r="H26" s="134"/>
-      <c r="J26" s="117" t="s">
+      <c r="J26" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
       <c r="P26" s="35"/>
       <c r="Q26" s="36"/>
-      <c r="T26" s="38" t="s">
+      <c r="T26" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="U26" s="43" t="s">
+      <c r="U26" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="V26" s="44" t="s">
+      <c r="V26" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="W26" s="44" t="s">
+      <c r="W26" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="44" t="s">
+      <c r="X26" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="Y26" s="44" t="s">
+      <c r="Y26" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="Z26" s="82" t="s">
+      <c r="Z26" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="AA26" s="71"/>
+      <c r="AA26" s="59"/>
     </row>
     <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="100">
+        <v>107</v>
+      </c>
+      <c r="B27" s="82">
         <f>$I$27</f>
         <v>1</v>
       </c>
-      <c r="C27" s="100">
-        <f t="shared" ref="C27:G27" si="11">$I$27</f>
+      <c r="C27" s="82">
+        <f t="shared" ref="C27:G27" si="14">$I$27</f>
         <v>1</v>
       </c>
-      <c r="D27" s="100">
-        <f t="shared" si="11"/>
+      <c r="D27" s="82">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E27" s="100">
-        <f t="shared" si="11"/>
+      <c r="E27" s="82">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="F27" s="100">
-        <f t="shared" si="11"/>
+      <c r="F27" s="82">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G27" s="100">
-        <f t="shared" si="11"/>
+      <c r="G27" s="82">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H27" s="135" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="122">
+      <c r="H27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="84">
         <v>1</v>
       </c>
       <c r="J27" s="19"/>
@@ -5272,28 +6148,28 @@
         <v>49</v>
       </c>
       <c r="Q27" s="21"/>
-      <c r="T27" s="37">
+      <c r="T27" s="130">
         <v>1</v>
       </c>
-      <c r="U27" s="45">
+      <c r="U27" s="131">
         <v>2035</v>
       </c>
-      <c r="V27" s="46">
+      <c r="V27" s="132">
         <v>2547</v>
       </c>
-      <c r="W27" s="46">
+      <c r="W27" s="132">
         <v>2917</v>
       </c>
-      <c r="X27" s="46">
+      <c r="X27" s="132">
         <v>3260</v>
       </c>
-      <c r="Y27" s="46">
+      <c r="Y27" s="132">
         <v>3611</v>
       </c>
-      <c r="Z27" s="83">
+      <c r="Z27" s="133">
         <v>3656</v>
       </c>
-      <c r="AA27" s="72"/>
+      <c r="AA27" s="60"/>
     </row>
     <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H28" s="18"/>
@@ -5326,28 +6202,28 @@
         <v>0.27701166843461128</v>
       </c>
       <c r="Q28" s="24"/>
-      <c r="T28" s="37">
+      <c r="T28" s="130">
         <v>2</v>
       </c>
-      <c r="U28" s="45">
+      <c r="U28" s="131">
         <v>1932</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="132">
         <v>2322</v>
       </c>
-      <c r="W28" s="46">
+      <c r="W28" s="132">
         <v>2500</v>
       </c>
-      <c r="X28" s="46">
+      <c r="X28" s="132">
         <v>2848</v>
       </c>
-      <c r="Y28" s="46">
+      <c r="Y28" s="132">
         <v>3184</v>
       </c>
-      <c r="Z28" s="83">
+      <c r="Z28" s="133">
         <v>3387</v>
       </c>
-      <c r="AA28" s="72"/>
+      <c r="AA28" s="60"/>
     </row>
     <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="29" t="s">
@@ -5364,23 +6240,23 @@
         <v>23</v>
       </c>
       <c r="K29" s="23">
-        <f t="shared" ref="K29:K31" si="12">U28/$U$31</f>
+        <f t="shared" ref="K29:K31" si="15">U28/$U$31</f>
         <v>0.2576</v>
       </c>
       <c r="L29" s="23">
-        <f t="shared" ref="L29:L31" si="13">V28/$V$31</f>
+        <f t="shared" ref="L29:L31" si="16">V28/$V$31</f>
         <v>0.25860340795188774</v>
       </c>
       <c r="M29" s="23">
-        <f t="shared" ref="M29:M31" si="14">W28/$W$31</f>
+        <f t="shared" ref="M29:M31" si="17">W28/$W$31</f>
         <v>0.24601456406219249</v>
       </c>
       <c r="N29" s="23">
-        <f t="shared" ref="N29:N31" si="15">X28/$X$31</f>
+        <f t="shared" ref="N29:N31" si="18">X28/$X$31</f>
         <v>0.250329612375846</v>
       </c>
       <c r="O29" s="23">
-        <f t="shared" ref="O29:O31" si="16">Y28/$Y$31</f>
+        <f t="shared" ref="O29:O31" si="19">Y28/$Y$31</f>
         <v>0.24876943511211813</v>
       </c>
       <c r="P29" s="23">
@@ -5388,28 +6264,28 @@
         <v>0.25662979239278677</v>
       </c>
       <c r="Q29" s="24"/>
-      <c r="T29" s="37">
+      <c r="T29" s="130">
         <v>3</v>
       </c>
-      <c r="U29" s="45">
+      <c r="U29" s="131">
         <v>1539</v>
       </c>
-      <c r="V29" s="46">
+      <c r="V29" s="132">
         <v>1810</v>
       </c>
-      <c r="W29" s="46">
+      <c r="W29" s="132">
         <v>2058</v>
       </c>
-      <c r="X29" s="46">
+      <c r="X29" s="132">
         <v>2493</v>
       </c>
-      <c r="Y29" s="46">
+      <c r="Y29" s="132">
         <v>2908</v>
       </c>
-      <c r="Z29" s="83">
+      <c r="Z29" s="133">
         <v>2984</v>
       </c>
-      <c r="AA29" s="72"/>
+      <c r="AA29" s="60"/>
     </row>
     <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
@@ -5436,23 +6312,23 @@
         <v>24</v>
       </c>
       <c r="K30" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.20519999999999999</v>
       </c>
       <c r="L30" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.2015814678694732</v>
       </c>
       <c r="M30" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.20251918913599684</v>
       </c>
       <c r="N30" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.2191263074624242</v>
       </c>
       <c r="O30" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2272052504101883</v>
       </c>
       <c r="P30" s="23">
@@ -5460,55 +6336,55 @@
         <v>0.22609486285800878</v>
       </c>
       <c r="Q30" s="24"/>
-      <c r="T30" s="37">
+      <c r="T30" s="130">
         <v>4</v>
       </c>
-      <c r="U30" s="45">
+      <c r="U30" s="131">
         <v>1994</v>
       </c>
-      <c r="V30" s="46">
+      <c r="V30" s="132">
         <v>2301</v>
       </c>
-      <c r="W30" s="46">
+      <c r="W30" s="132">
         <v>2687</v>
       </c>
-      <c r="X30" s="46">
+      <c r="X30" s="132">
         <v>2776</v>
       </c>
-      <c r="Y30" s="46">
+      <c r="Y30" s="132">
         <v>3096</v>
       </c>
-      <c r="Z30" s="83">
+      <c r="Z30" s="133">
         <v>3171</v>
       </c>
-      <c r="AA30" s="72"/>
+      <c r="AA30" s="60"/>
     </row>
     <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="18">
-        <f>$B$26*K28+U33*$B$27</f>
+        <f>IF($I$2="a",B$26*K28+U33*$B$27,IF($I$2="b",B$26*K28+U47*$B$27,B$26*K28+U61*$B$27))</f>
         <v>969.50459308333336</v>
       </c>
       <c r="C31" s="18">
-        <f>$C$26*L28+V33*$C$27</f>
+        <f>IF($I$2="a",C$26*L28+V33*$B$27,IF($I$2="b",C$26*L28+V47*$B$27,C$26*L28+V61*$B$27))</f>
         <v>1371.6092805196806</v>
       </c>
       <c r="D31" s="18">
-        <f>$D$26*M28+W33*$D$27</f>
+        <f t="shared" ref="D31:G31" si="20">IF($I$2="a",D$26*M28+W33*$B$27,IF($I$2="b",D$26*M28+W47*$B$27,D$26*M28+W61*$B$27))</f>
         <v>1419.0929573426886</v>
       </c>
       <c r="E31" s="18">
-        <f>$E$26*N28+X33*$E$27</f>
+        <f t="shared" si="20"/>
         <v>2092.3960124271398</v>
       </c>
       <c r="F31" s="18">
-        <f>$F$26*O28+Y33*$F$27</f>
+        <f t="shared" si="20"/>
         <v>2523.0392221907287</v>
       </c>
       <c r="G31" s="18">
-        <f>$G$26*P28+Z33*$G$27</f>
+        <f t="shared" si="20"/>
         <v>2586.4728604015236</v>
       </c>
       <c r="H31" s="18"/>
@@ -5516,23 +6392,23 @@
         <v>25</v>
       </c>
       <c r="K31" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.26586666666666664</v>
       </c>
       <c r="L31" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.25626461744069495</v>
       </c>
       <c r="M31" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.26441645345404446</v>
       </c>
       <c r="N31" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.24400105475960271</v>
       </c>
       <c r="O31" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.24189389796077818</v>
       </c>
       <c r="P31" s="23">
@@ -5540,28 +6416,28 @@
         <v>0.24026367631459311</v>
       </c>
       <c r="Q31" s="24"/>
-      <c r="T31" s="39" t="s">
+      <c r="T31" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="47">
+      <c r="U31" s="134">
         <v>7500</v>
       </c>
-      <c r="V31" s="48">
+      <c r="V31" s="135">
         <v>8979</v>
       </c>
-      <c r="W31" s="48">
+      <c r="W31" s="135">
         <v>10162</v>
       </c>
-      <c r="X31" s="48">
+      <c r="X31" s="135">
         <v>11377</v>
       </c>
-      <c r="Y31" s="48">
+      <c r="Y31" s="135">
         <v>12799</v>
       </c>
-      <c r="Z31" s="84">
+      <c r="Z31" s="136">
         <v>13198</v>
       </c>
-      <c r="AA31" s="71"/>
+      <c r="AA31" s="59"/>
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
@@ -5569,27 +6445,27 @@
         <v>23</v>
       </c>
       <c r="B32" s="18">
-        <f>$B$26*K29+U34*$B$27</f>
+        <f>IF($I$2="a",B$26*K29+U34*$B$27,IF($I$2="b",B$26*K29+U48*$B$27,B$26*K29+U62*$B$27))</f>
         <v>919.59649820000004</v>
       </c>
       <c r="C32" s="18">
-        <f>$C$26*L29+V34*$C$27</f>
+        <f t="shared" ref="C32:G34" si="21">IF($I$2="a",C$26*L29+V34*$B$27,IF($I$2="b",C$26*L29+V48*$B$27,C$26*L29+V62*$B$27))</f>
         <v>1249.9688847140551</v>
       </c>
       <c r="D32" s="18">
-        <f>$D$26*M29+W34*$D$27</f>
+        <f t="shared" si="21"/>
         <v>1215.9692812330206</v>
       </c>
       <c r="E32" s="18">
-        <f>$E$26*N29+X34*$E$27</f>
+        <f t="shared" si="21"/>
         <v>1827.1582341694764</v>
       </c>
       <c r="F32" s="18">
-        <f>$F$26*O29+Y34*$F$27</f>
+        <f t="shared" si="21"/>
         <v>2223.4967830117089</v>
       </c>
       <c r="G32" s="18">
-        <f>$G$26*P29+Z34*$G$27</f>
+        <f t="shared" si="21"/>
         <v>2397.022039983578</v>
       </c>
       <c r="H32" s="26"/>
@@ -5599,15 +6475,15 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="T32" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
+      <c r="T32" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -5615,48 +6491,48 @@
         <v>24</v>
       </c>
       <c r="B33" s="18">
-        <f>$B$26*K30+U35*$B$27</f>
+        <f t="shared" ref="B33:B34" si="22">IF($I$2="a",B$26*K30+U35*$B$27,IF($I$2="b",B$26*K30+U49*$B$27,B$26*K30+U63*$B$27))</f>
         <v>733.06367015000001</v>
       </c>
       <c r="C33" s="18">
-        <f>$C$26*L30+V35*$C$27</f>
+        <f t="shared" si="21"/>
         <v>974.50718403636506</v>
       </c>
       <c r="D33" s="18">
-        <f>$D$26*M30+W35*$D$27</f>
+        <f t="shared" si="21"/>
         <v>1001.1859123110225</v>
       </c>
       <c r="E33" s="18">
-        <f>$E$26*N30+X35*$E$27</f>
+        <f t="shared" si="21"/>
         <v>1599.8052941659075</v>
       </c>
       <c r="F33" s="18">
-        <f>$F$26*O30+Y35*$F$27</f>
+        <f t="shared" si="21"/>
         <v>2031.3218106149654</v>
       </c>
       <c r="G33" s="18">
-        <f>$G$26*P30+Z35*$G$27</f>
+        <f t="shared" si="21"/>
         <v>2112.1496212905213</v>
       </c>
-      <c r="T33" s="97">
+      <c r="T33" s="130">
         <v>1</v>
       </c>
-      <c r="U33" s="98">
+      <c r="U33" s="138">
         <v>102</v>
       </c>
-      <c r="V33" s="99">
+      <c r="V33" s="139">
         <v>255</v>
       </c>
-      <c r="W33" s="99">
+      <c r="W33" s="139">
         <v>292</v>
       </c>
-      <c r="X33" s="99">
+      <c r="X33" s="139">
         <v>326</v>
       </c>
-      <c r="Y33" s="99">
+      <c r="Y33" s="139">
         <v>362</v>
       </c>
-      <c r="Z33" s="99">
+      <c r="Z33" s="139">
         <v>365</v>
       </c>
       <c r="AA33" s="3"/>
@@ -5667,57 +6543,57 @@
         <v>25</v>
       </c>
       <c r="B34" s="18">
-        <f>$B$26*K31+U36*$B$27</f>
+        <f t="shared" si="22"/>
         <v>950.0266135666667</v>
       </c>
       <c r="C34" s="18">
-        <f>$C$26*L31+V36*$C$27</f>
+        <f t="shared" si="21"/>
         <v>1238.7624477721965</v>
       </c>
       <c r="D34" s="18">
-        <f>$D$26*M31+W36*$D$27</f>
+        <f t="shared" si="21"/>
         <v>1306.2237834692505</v>
       </c>
       <c r="E34" s="18">
-        <f>$E$26*N31+X36*$E$27</f>
+        <f t="shared" si="21"/>
         <v>1782.1458069011469</v>
       </c>
       <c r="F34" s="18">
-        <f>$F$26*O31+Y36*$F$27</f>
+        <f t="shared" si="21"/>
         <v>2161.8322990591241</v>
       </c>
       <c r="G34" s="18">
-        <f>$G$26*P31+Z36*$G$27</f>
+        <f t="shared" si="21"/>
         <v>2244.7752845550413</v>
       </c>
       <c r="H34" s="32"/>
-      <c r="J34" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
-      <c r="T34" s="97">
+      <c r="J34" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="T34" s="130">
         <v>2</v>
       </c>
-      <c r="U34" s="98">
+      <c r="U34" s="138">
         <v>96</v>
       </c>
-      <c r="V34" s="99">
+      <c r="V34" s="139">
         <v>232</v>
       </c>
-      <c r="W34" s="99">
+      <c r="W34" s="139">
         <v>250</v>
       </c>
-      <c r="X34" s="99">
+      <c r="X34" s="139">
         <v>284</v>
       </c>
-      <c r="Y34" s="99">
+      <c r="Y34" s="139">
         <v>318</v>
       </c>
-      <c r="Z34" s="99">
+      <c r="Z34" s="139">
         <v>339</v>
       </c>
       <c r="AA34" s="3"/>
@@ -5745,25 +6621,25 @@
       <c r="N35" t="s">
         <v>25</v>
       </c>
-      <c r="T35" s="97">
+      <c r="T35" s="130">
         <v>3</v>
       </c>
-      <c r="U35" s="98">
+      <c r="U35" s="138">
         <v>77</v>
       </c>
-      <c r="V35" s="98">
+      <c r="V35" s="138">
         <v>181</v>
       </c>
-      <c r="W35" s="98">
+      <c r="W35" s="138">
         <v>206</v>
       </c>
-      <c r="X35" s="98">
+      <c r="X35" s="138">
         <v>249</v>
       </c>
-      <c r="Y35" s="98">
+      <c r="Y35" s="138">
         <v>291</v>
       </c>
-      <c r="Z35" s="98">
+      <c r="Z35" s="138">
         <v>299</v>
       </c>
     </row>
@@ -5784,37 +6660,37 @@
       <c r="N36" s="3">
         <v>0.25610482430017867</v>
       </c>
-      <c r="T36" s="97">
+      <c r="T36" s="130">
         <v>4</v>
       </c>
-      <c r="U36" s="98">
+      <c r="U36" s="138">
         <v>100</v>
       </c>
-      <c r="V36" s="98">
+      <c r="V36" s="138">
         <v>230</v>
       </c>
-      <c r="W36" s="98">
+      <c r="W36" s="138">
         <v>268</v>
       </c>
-      <c r="X36" s="98">
+      <c r="X36" s="138">
         <v>278</v>
       </c>
-      <c r="Y36" s="98">
+      <c r="Y36" s="138">
         <v>309</v>
       </c>
-      <c r="Z36" s="98">
+      <c r="Z36" s="138">
         <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A37" s="114" t="s">
+      <c r="A37" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
       <c r="G37" s="32"/>
       <c r="H37" s="27"/>
       <c r="J37" t="s">
@@ -5868,7 +6744,7 @@
         <v>0.24419297200714712</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5906,21 +6782,30 @@
       <c r="N39" s="3">
         <v>0.26801667659321027</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="T39" s="140" t="s">
+        <v>124</v>
+      </c>
+      <c r="U39" s="140"/>
+      <c r="V39" s="140"/>
+      <c r="W39" s="140"/>
+      <c r="X39" s="140"/>
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="140"/>
+    </row>
+    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="31">
-        <f t="shared" ref="B40:B42" si="17">$B$31*K37</f>
+        <f t="shared" ref="B40:B42" si="23">$B$31*K37</f>
         <v>214.23509734800251</v>
       </c>
       <c r="C40" s="31">
-        <f t="shared" ref="C40:C42" si="18">$B$32*L37</f>
+        <f t="shared" ref="C40:C42" si="24">$B$32*L37</f>
         <v>228.03002597642276</v>
       </c>
       <c r="D40" s="31">
-        <f t="shared" ref="D40:D42" si="19">$B$33*M37</f>
+        <f t="shared" ref="D40:D42" si="25">$B$33*M37</f>
         <v>170.13246256604208</v>
       </c>
       <c r="E40" s="31">
@@ -5945,21 +6830,42 @@
       <c r="N40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="T40" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="V40" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="W40" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="X40" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z40" s="144" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>244.01014477602999</v>
       </c>
       <c r="C41" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>231.76822312357723</v>
       </c>
       <c r="D41" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>171.57834751702828</v>
       </c>
       <c r="E41" s="31">
@@ -5968,21 +6874,42 @@
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="T41" s="145">
+        <v>1</v>
+      </c>
+      <c r="U41" s="146">
+        <v>2035</v>
+      </c>
+      <c r="V41" s="147">
+        <v>2544</v>
+      </c>
+      <c r="W41" s="147">
+        <v>2832</v>
+      </c>
+      <c r="X41" s="147">
+        <v>3129</v>
+      </c>
+      <c r="Y41" s="147">
+        <v>3366</v>
+      </c>
+      <c r="Z41" s="148">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>217.86620069288389</v>
       </c>
       <c r="C42" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>189.15277564601627</v>
       </c>
       <c r="D42" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>214.47293439628532</v>
       </c>
       <c r="E42" s="31">
@@ -5991,8 +6918,29 @@
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="T42" s="145">
+        <v>2</v>
+      </c>
+      <c r="U42" s="146">
+        <v>1932</v>
+      </c>
+      <c r="V42" s="147">
+        <v>2319</v>
+      </c>
+      <c r="W42" s="147">
+        <v>2512</v>
+      </c>
+      <c r="X42" s="147">
+        <v>2716</v>
+      </c>
+      <c r="Y42" s="147">
+        <v>3034</v>
+      </c>
+      <c r="Z42" s="148">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>5</v>
       </c>
@@ -6014,47 +6962,110 @@
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="T43" s="145">
+        <v>3</v>
+      </c>
+      <c r="U43" s="146">
+        <v>1539</v>
+      </c>
+      <c r="V43" s="147">
+        <v>1901</v>
+      </c>
+      <c r="W43" s="147">
+        <v>2069</v>
+      </c>
+      <c r="X43" s="147">
+        <v>2458</v>
+      </c>
+      <c r="Y43" s="147">
+        <v>2663</v>
+      </c>
+      <c r="Z43" s="148">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44" s="31">
-        <f t="shared" ref="B44:B46" si="20">$C$31*K37</f>
+        <f t="shared" ref="B44:B46" si="26">$C$31*K37</f>
         <v>303.08969120097811</v>
       </c>
       <c r="C44" s="31">
-        <f t="shared" ref="C44:C46" si="21">$C$32*L37</f>
+        <f t="shared" ref="C44:C46" si="27">$C$32*L37</f>
         <v>309.95163401446081</v>
       </c>
       <c r="D44" s="31">
-        <f t="shared" ref="D44:D46" si="22">$C$33*M37</f>
+        <f t="shared" ref="D44:D46" si="28">$C$33*M37</f>
         <v>226.16767650548118</v>
       </c>
       <c r="E44" s="31">
-        <f t="shared" ref="E44:E46" si="23">$C$34*N37</f>
+        <f t="shared" ref="E44:E46" si="29">$C$34*N37</f>
         <v>287.00333066312356</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="T44" s="145">
+        <v>4</v>
+      </c>
+      <c r="U44" s="146">
+        <v>1994</v>
+      </c>
+      <c r="V44" s="147">
+        <v>2392</v>
+      </c>
+      <c r="W44" s="147">
+        <v>2602</v>
+      </c>
+      <c r="X44" s="147">
+        <v>2741</v>
+      </c>
+      <c r="Y44" s="147">
+        <v>2850</v>
+      </c>
+      <c r="Z44" s="148">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>7</v>
       </c>
       <c r="B45" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>345.21402116450389</v>
       </c>
       <c r="C45" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>315.03280834256668</v>
       </c>
       <c r="D45" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>228.08978140496117</v>
       </c>
       <c r="E45" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>302.49708373234103</v>
+      </c>
+      <c r="T45" s="141" t="s">
+        <v>53</v>
+      </c>
+      <c r="U45" s="149">
+        <v>7500</v>
+      </c>
+      <c r="V45" s="150">
+        <v>9157</v>
+      </c>
+      <c r="W45" s="150">
+        <v>10016</v>
+      </c>
+      <c r="X45" s="150">
+        <v>11043</v>
+      </c>
+      <c r="Y45" s="150">
+        <v>11914</v>
+      </c>
+      <c r="Z45" s="151">
+        <v>12174</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
@@ -6062,21 +7073,30 @@
         <v>8</v>
       </c>
       <c r="B46" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>308.2268046111642</v>
       </c>
       <c r="C46" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>257.1074210021593</v>
       </c>
       <c r="D46" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>285.11222675620144</v>
       </c>
       <c r="E46" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>332.00899434037433</v>
       </c>
+      <c r="T46" s="152" t="s">
+        <v>106</v>
+      </c>
+      <c r="U46" s="152"/>
+      <c r="V46" s="152"/>
+      <c r="W46" s="152"/>
+      <c r="X46" s="152"/>
+      <c r="Y46" s="152"/>
+      <c r="Z46" s="152"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -6098,71 +7118,155 @@
         <f>$D$34*N36</f>
         <v>334.53021256210701</v>
       </c>
+      <c r="T47" s="145">
+        <v>1</v>
+      </c>
+      <c r="U47" s="153">
+        <v>102</v>
+      </c>
+      <c r="V47" s="154">
+        <v>255</v>
+      </c>
+      <c r="W47" s="154">
+        <v>284</v>
+      </c>
+      <c r="X47" s="154">
+        <v>313</v>
+      </c>
+      <c r="Y47" s="154">
+        <v>337</v>
+      </c>
+      <c r="Z47" s="154">
+        <v>340</v>
+      </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" ref="B48:B50" si="24">$D$31*K37</f>
+        <f t="shared" ref="B48:B50" si="30">$D$31*K37</f>
         <v>313.58233888845928</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" ref="C48:C50" si="25">$D$32*L37</f>
+        <f t="shared" ref="C48:C50" si="31">$D$32*L37</f>
         <v>301.52083802932623</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ref="D48:D50" si="26">$D$33*M37</f>
+        <f t="shared" ref="D48:D50" si="32">$D$33*M37</f>
         <v>232.35938661787705</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ref="E48:E50" si="27">$D$34*N37</f>
+        <f t="shared" ref="E48:E50" si="33">$D$34*N37</f>
         <v>302.63314578292938</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T48" s="145">
+        <v>2</v>
+      </c>
+      <c r="U48" s="153">
+        <v>96</v>
+      </c>
+      <c r="V48" s="154">
+        <v>232</v>
+      </c>
+      <c r="W48" s="154">
+        <v>251</v>
+      </c>
+      <c r="X48" s="154">
+        <v>272</v>
+      </c>
+      <c r="Y48" s="154">
+        <v>303</v>
+      </c>
+      <c r="Z48" s="154">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>11</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>357.16496903905875</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>306.46380258718403</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>234.33411228318477</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>318.97066779177652</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T49" s="145">
+        <v>3</v>
+      </c>
+      <c r="U49" s="153">
+        <v>77</v>
+      </c>
+      <c r="V49" s="153">
+        <v>190</v>
+      </c>
+      <c r="W49" s="153">
+        <v>207</v>
+      </c>
+      <c r="X49" s="153">
+        <v>245</v>
+      </c>
+      <c r="Y49" s="153">
+        <v>266</v>
+      </c>
+      <c r="Z49" s="153">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>12</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>318.89729378487385</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>250.11400662760505</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>292.91764035398091</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>350.08975733243761</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T50" s="145">
+        <v>4</v>
+      </c>
+      <c r="U50" s="153">
+        <v>100</v>
+      </c>
+      <c r="V50" s="153">
+        <v>239</v>
+      </c>
+      <c r="W50" s="153">
+        <v>260</v>
+      </c>
+      <c r="X50" s="153">
+        <v>274</v>
+      </c>
+      <c r="Y50" s="153">
+        <v>285</v>
+      </c>
+      <c r="Z50" s="153">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>13</v>
       </c>
@@ -6183,70 +7287,100 @@
         <v>456.41613875371837</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>14</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:B54" si="28">$E$31*K37</f>
+        <f t="shared" ref="B52:B54" si="34">$E$31*K37</f>
         <v>462.36466192210207</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ref="C52:C54" si="29">$E$32*L37</f>
+        <f t="shared" ref="C52:C54" si="35">$E$32*L37</f>
         <v>453.0758222940571</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" ref="D52:D54" si="30">$E$33*M37</f>
+        <f t="shared" ref="D52:D54" si="36">$E$33*M37</f>
         <v>371.28946011871489</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" ref="E52:E54" si="31">$E$34*N37</f>
+        <f t="shared" ref="E52:E54" si="37">$E$34*N37</f>
         <v>412.89739063999173</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>15</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>526.62551324008916</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>460.50329479068103</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>374.44489462397308</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>435.18748113726639</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T53" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="U53" s="155"/>
+      <c r="V53" s="155"/>
+      <c r="W53" s="155"/>
+      <c r="X53" s="155"/>
+      <c r="Y53" s="155"/>
+      <c r="Z53" s="155"/>
+    </row>
+    <row r="54" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>16</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>470.20135110722242</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>375.8301083291687</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>468.05611827996631</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>477.64479637017047</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T54" s="156" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="V54" s="158" t="s">
+        <v>18</v>
+      </c>
+      <c r="W54" s="158" t="s">
+        <v>19</v>
+      </c>
+      <c r="X54" s="158" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="158" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z54" s="159" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>17</v>
       </c>
@@ -6266,50 +7400,113 @@
         <f>$F$34*N36</f>
         <v>553.65568111698826</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T55" s="160">
+        <v>1</v>
+      </c>
+      <c r="U55" s="161">
+        <v>2035</v>
+      </c>
+      <c r="V55" s="162">
+        <v>2547</v>
+      </c>
+      <c r="W55" s="162">
+        <v>2917</v>
+      </c>
+      <c r="X55" s="162">
+        <v>3260</v>
+      </c>
+      <c r="Y55" s="162">
+        <v>3611</v>
+      </c>
+      <c r="Z55" s="163">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>18</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ref="B56:B57" si="32">$F$31*K37</f>
+        <f t="shared" ref="B56:B57" si="38">$F$31*K37</f>
         <v>557.5255210084382</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" ref="C56:C58" si="33">$F$32*L37</f>
+        <f t="shared" ref="C56:C58" si="39">$F$32*L37</f>
         <v>551.3548933484318</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:D58" si="34">$F$33*M37</f>
+        <f t="shared" ref="D56:D58" si="40">$F$33*M37</f>
         <v>471.43760627684605</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" ref="E56:E58" si="35">$F$34*N37</f>
+        <f t="shared" ref="E56:E58" si="41">$F$34*N37</f>
         <v>500.86525570815917</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T56" s="160">
+        <v>2</v>
+      </c>
+      <c r="U56" s="161">
+        <v>1932</v>
+      </c>
+      <c r="V56" s="162">
+        <v>2322</v>
+      </c>
+      <c r="W56" s="162">
+        <v>2500</v>
+      </c>
+      <c r="X56" s="162">
+        <v>2848</v>
+      </c>
+      <c r="Y56" s="162">
+        <v>3184</v>
+      </c>
+      <c r="Z56" s="163">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>19</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>635.01211884350926</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>560.39349815742253</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>475.4441581715501</v>
       </c>
       <c r="E57" s="1">
         <f>$F$34*N38</f>
         <v>527.90425408829117</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T57" s="160">
+        <v>3</v>
+      </c>
+      <c r="U57" s="161">
+        <v>1539</v>
+      </c>
+      <c r="V57" s="162">
+        <v>1810</v>
+      </c>
+      <c r="W57" s="162">
+        <v>2058</v>
+      </c>
+      <c r="X57" s="162">
+        <v>2493</v>
+      </c>
+      <c r="Y57" s="162">
+        <v>2813</v>
+      </c>
+      <c r="Z57" s="163">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>20</v>
       </c>
@@ -6318,19 +7515,40 @@
         <v>566.9751061102761</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>457.35340333492871</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>594.30519771443755</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>579.40710814568547</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T58" s="160">
+        <v>4</v>
+      </c>
+      <c r="U58" s="161">
+        <v>1994</v>
+      </c>
+      <c r="V58" s="162">
+        <v>2301</v>
+      </c>
+      <c r="W58" s="162">
+        <v>2687</v>
+      </c>
+      <c r="X58" s="162">
+        <v>2776</v>
+      </c>
+      <c r="Y58" s="162">
+        <v>3000</v>
+      </c>
+      <c r="Z58" s="163">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>21</v>
       </c>
@@ -6350,8 +7568,29 @@
         <f>$G$34*N36</f>
         <v>574.89777984435239</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T59" s="156" t="s">
+        <v>53</v>
+      </c>
+      <c r="U59" s="164">
+        <v>7500</v>
+      </c>
+      <c r="V59" s="165">
+        <v>8979</v>
+      </c>
+      <c r="W59" s="165">
+        <v>10162</v>
+      </c>
+      <c r="X59" s="165">
+        <v>11377</v>
+      </c>
+      <c r="Y59" s="165">
+        <v>12607</v>
+      </c>
+      <c r="Z59" s="166">
+        <v>13186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>22</v>
       </c>
@@ -6364,41 +7603,71 @@
         <v>594.38351397966767</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ref="D60:D61" si="36">$G$33*M37</f>
+        <f t="shared" ref="D60:D61" si="42">$G$33*M37</f>
         <v>490.19646043100198</v>
       </c>
       <c r="E60" s="1">
         <f>$G$34*N37</f>
         <v>520.08194502198398</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T60" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="U60" s="110"/>
+      <c r="V60" s="110"/>
+      <c r="W60" s="110"/>
+      <c r="X60" s="110"/>
+      <c r="Y60" s="110"/>
+      <c r="Z60" s="110"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>23</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ref="B61:B62" si="37">$G$31*K38</f>
+        <f t="shared" ref="B61:B62" si="43">$G$31*K38</f>
         <v>650.97743902240597</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61" si="38">$G$32*L38</f>
+        <f t="shared" ref="C61" si="44">$G$32*L38</f>
         <v>604.12750601212122</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>494.36243601540144</v>
       </c>
       <c r="E61" s="1">
         <f>$G$34*N38</f>
         <v>548.15834822368492</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T61" s="160">
+        <v>1</v>
+      </c>
+      <c r="U61" s="167">
+        <v>102</v>
+      </c>
+      <c r="V61" s="168">
+        <v>255</v>
+      </c>
+      <c r="W61" s="168">
+        <v>292</v>
+      </c>
+      <c r="X61" s="168">
+        <v>326</v>
+      </c>
+      <c r="Y61" s="168">
+        <v>362</v>
+      </c>
+      <c r="Z61" s="168">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>24</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>581.22985627000526</v>
       </c>
       <c r="C62" s="1">
@@ -6413,18 +7682,81 @@
         <f>$G$34*N39</f>
         <v>601.63721146502007</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T62" s="160">
+        <v>2</v>
+      </c>
+      <c r="U62" s="167">
+        <v>96</v>
+      </c>
+      <c r="V62" s="168">
+        <v>232</v>
+      </c>
+      <c r="W62" s="168">
+        <v>250</v>
+      </c>
+      <c r="X62" s="168">
+        <v>284</v>
+      </c>
+      <c r="Y62" s="168">
+        <v>318</v>
+      </c>
+      <c r="Z62" s="168">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="T63" s="160">
+        <v>3</v>
+      </c>
+      <c r="U63" s="167">
+        <v>77</v>
+      </c>
+      <c r="V63" s="167">
+        <v>181</v>
+      </c>
+      <c r="W63" s="167">
+        <v>206</v>
+      </c>
+      <c r="X63" s="167">
+        <v>249</v>
+      </c>
+      <c r="Y63" s="167">
+        <v>281</v>
+      </c>
+      <c r="Z63" s="167">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
+      <c r="T64" s="160">
+        <v>4</v>
+      </c>
+      <c r="U64" s="167">
+        <v>100</v>
+      </c>
+      <c r="V64" s="167">
+        <v>230</v>
+      </c>
+      <c r="W64" s="167">
+        <v>268</v>
+      </c>
+      <c r="X64" s="167">
+        <v>278</v>
+      </c>
+      <c r="Y64" s="167">
+        <v>300</v>
+      </c>
+      <c r="Z64" s="167">
+        <v>317</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
@@ -6439,7 +7771,9 @@
       <c r="E66" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="T46:Z46"/>
+    <mergeCell ref="T60:Z60"/>
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="J34:O34"/>
@@ -6471,16 +7805,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="A1" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -6496,7 +7830,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H2" s="17">
         <f>'Calculate Capacity'!B26</f>
@@ -6572,16 +7906,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -7454,7 +8788,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="17">
         <f>ROUND('Calculate Capacity'!B43,0)</f>
@@ -7475,7 +8809,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="17">
         <f>ROUND('Calculate Capacity'!B44,0)</f>
@@ -7496,7 +8830,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="17">
         <f>ROUND('Calculate Capacity'!B45,0)</f>
@@ -7517,7 +8851,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="17">
         <f>ROUND('Calculate Capacity'!B46,0)</f>
@@ -7538,7 +8872,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="17">
         <f>ROUND('Calculate Capacity'!B47,0)</f>
@@ -7559,7 +8893,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="17">
         <f>ROUND('Calculate Capacity'!B48,0)</f>
@@ -7580,7 +8914,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="17">
         <f>ROUND('Calculate Capacity'!B49,0)</f>
@@ -7601,7 +8935,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="17">
         <f>ROUND('Calculate Capacity'!B50,0)</f>
@@ -7622,7 +8956,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" s="17">
         <f>ROUND('Calculate Capacity'!B51,0)</f>
@@ -7643,7 +8977,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="17">
         <f>ROUND('Calculate Capacity'!B52,0)</f>
@@ -7664,7 +8998,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="17">
         <f>ROUND('Calculate Capacity'!B53,0)</f>
@@ -7685,7 +9019,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B17" s="17">
         <f>ROUND('Calculate Capacity'!B54,0)</f>
@@ -7706,7 +9040,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B18" s="17">
         <f>ROUND('Calculate Capacity'!B55,0)</f>
@@ -7727,7 +9061,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="17">
         <f>ROUND('Calculate Capacity'!B56,0)</f>
@@ -7748,7 +9082,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="17">
         <f>ROUND('Calculate Capacity'!B57,0)</f>
@@ -7769,7 +9103,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="17">
         <f>ROUND('Calculate Capacity'!B58,0)</f>
@@ -7790,7 +9124,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B22" s="17">
         <f>ROUND('Calculate Capacity'!B59,0)</f>
@@ -7811,7 +9145,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B23" s="17">
         <f>ROUND('Calculate Capacity'!B60,0)</f>
@@ -7832,7 +9166,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B24" s="17">
         <f>ROUND('Calculate Capacity'!B61,0)</f>
@@ -7853,7 +9187,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B25" s="17">
         <f>ROUND('Calculate Capacity'!B62,0)</f>
@@ -8013,7 +9347,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="17">
         <f>ROUND('Calculate FOA per Day'!B15,0)</f>
@@ -8034,7 +9368,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="17">
         <f>ROUND('Calculate FOA per Day'!B16,0)</f>
@@ -8055,7 +9389,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="17">
         <f>ROUND('Calculate FOA per Day'!B17,0)</f>
@@ -8076,7 +9410,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="17">
         <f>ROUND('Calculate FOA per Day'!B18,0)</f>
@@ -8097,7 +9431,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="17">
         <f>ROUND('Calculate FOA per Day'!B19,0)</f>
@@ -8118,7 +9452,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="17">
         <f>ROUND('Calculate FOA per Day'!B20,0)</f>
@@ -8139,7 +9473,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="17">
         <f>ROUND('Calculate FOA per Day'!B21,0)</f>
@@ -8160,7 +9494,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="17">
         <f>ROUND('Calculate FOA per Day'!B22,0)</f>
@@ -8181,7 +9515,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" s="17">
         <f>ROUND('Calculate FOA per Day'!B23,0)</f>
@@ -8202,7 +9536,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="17">
         <f>ROUND('Calculate FOA per Day'!B24,0)</f>
@@ -8223,7 +9557,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="17">
         <f>ROUND('Calculate FOA per Day'!B25,0)</f>
@@ -8244,7 +9578,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B17" s="17">
         <f>ROUND('Calculate FOA per Day'!B26,0)</f>
@@ -8265,7 +9599,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B18" s="17">
         <f>ROUND('Calculate FOA per Day'!B27,0)</f>
@@ -8286,7 +9620,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="17">
         <f>ROUND('Calculate FOA per Day'!B28,0)</f>
@@ -8307,7 +9641,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="17">
         <f>ROUND('Calculate FOA per Day'!B29,0)</f>
@@ -8328,7 +9662,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="17">
         <f>ROUND('Calculate FOA per Day'!B30,0)</f>
@@ -8349,7 +9683,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B22" s="17">
         <f>ROUND('Calculate FOA per Day'!B31,0)</f>
@@ -8370,7 +9704,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B23" s="17">
         <f>ROUND('Calculate FOA per Day'!B32,0)</f>
@@ -8391,7 +9725,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B24" s="17">
         <f>ROUND('Calculate FOA per Day'!B33,0)</f>
@@ -8412,7 +9746,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B25" s="17">
         <f>ROUND('Calculate FOA per Day'!B34,0)</f>
